--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>68.01056298341565</v>
+        <v>23.05760979429134</v>
       </c>
       <c r="R2">
-        <v>612.0950668507409</v>
+        <v>207.518488148622</v>
       </c>
       <c r="S2">
-        <v>0.07340549383928557</v>
+        <v>0.04792492941883476</v>
       </c>
       <c r="T2">
-        <v>0.07340549383928559</v>
+        <v>0.04792492941883474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>36.31071482433166</v>
+        <v>14.42071291953833</v>
       </c>
       <c r="R3">
-        <v>326.796433418985</v>
+        <v>129.786416275845</v>
       </c>
       <c r="S3">
-        <v>0.03919105851230038</v>
+        <v>0.02997325633506298</v>
       </c>
       <c r="T3">
-        <v>0.03919105851230039</v>
+        <v>0.02997325633506298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>81.68260965805864</v>
+        <v>16.16665750803367</v>
       </c>
       <c r="R4">
-        <v>735.1434869225278</v>
+        <v>145.499917572303</v>
       </c>
       <c r="S4">
-        <v>0.08816207419858445</v>
+        <v>0.03360217849652447</v>
       </c>
       <c r="T4">
-        <v>0.08816207419858448</v>
+        <v>0.03360217849652447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>6.216818798146665</v>
+        <v>2.072287682581667</v>
       </c>
       <c r="R5">
-        <v>55.95136918331999</v>
+        <v>18.650589143235</v>
       </c>
       <c r="S5">
-        <v>0.006709967304616935</v>
+        <v>0.004307221859042625</v>
       </c>
       <c r="T5">
-        <v>0.006709967304616936</v>
+        <v>0.004307221859042625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H6">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I6">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J6">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>50.201891281714</v>
+        <v>16.38741195509367</v>
       </c>
       <c r="R6">
-        <v>451.817021535426</v>
+        <v>147.486707595843</v>
       </c>
       <c r="S6">
-        <v>0.05418415110163035</v>
+        <v>0.03406101362248205</v>
       </c>
       <c r="T6">
-        <v>0.05418415110163035</v>
+        <v>0.03406101362248205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>102.1375020960291</v>
+        <v>87.19091098640578</v>
       </c>
       <c r="R7">
-        <v>919.2375188642619</v>
+        <v>784.718198877652</v>
       </c>
       <c r="S7">
-        <v>0.1102395488579963</v>
+        <v>0.1812251266400542</v>
       </c>
       <c r="T7">
-        <v>0.1102395488579963</v>
+        <v>0.1812251266400541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>54.53102501714111</v>
@@ -948,10 +948,10 @@
         <v>490.7792251542699</v>
       </c>
       <c r="S8">
-        <v>0.05885669292168304</v>
+        <v>0.1133419963473504</v>
       </c>
       <c r="T8">
-        <v>0.05885669292168305</v>
+        <v>0.1133419963473504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>122.6700287305884</v>
+        <v>61.13320540621089</v>
       </c>
       <c r="R9">
-        <v>1104.030258575296</v>
+        <v>550.1988486558979</v>
       </c>
       <c r="S9">
-        <v>0.1324008160385906</v>
+        <v>0.1270645387955673</v>
       </c>
       <c r="T9">
-        <v>0.1324008160385906</v>
+        <v>0.1270645387955673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>9.33634887247111</v>
+        <v>7.836226412112221</v>
       </c>
       <c r="R10">
-        <v>84.02713985223998</v>
+        <v>70.52603770900998</v>
       </c>
       <c r="S10">
-        <v>0.01007695377858758</v>
+        <v>0.0162874903800075</v>
       </c>
       <c r="T10">
-        <v>0.01007695377858758</v>
+        <v>0.0162874903800075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>75.39263830621468</v>
+        <v>61.96797455683755</v>
       </c>
       <c r="R11">
-        <v>678.533744755932</v>
+        <v>557.7117710115378</v>
       </c>
       <c r="S11">
-        <v>0.0813731515215342</v>
+        <v>0.1287995951601133</v>
       </c>
       <c r="T11">
-        <v>0.0813731515215342</v>
+        <v>0.1287995951601132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>2.038100213341889</v>
+        <v>41.62892549966756</v>
       </c>
       <c r="R12">
-        <v>18.342901920077</v>
+        <v>374.660329497008</v>
       </c>
       <c r="S12">
-        <v>0.002199772301411421</v>
+        <v>0.08652515738415525</v>
       </c>
       <c r="T12">
-        <v>0.002199772301411421</v>
+        <v>0.08652515738415524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>1.088137965393889</v>
+        <v>26.03560339234222</v>
       </c>
       <c r="R13">
-        <v>9.793241688544999</v>
+        <v>234.32043053108</v>
       </c>
       <c r="S13">
-        <v>0.001174454396657346</v>
+        <v>0.05411464874662324</v>
       </c>
       <c r="T13">
-        <v>0.001174454396657346</v>
+        <v>0.05411464874662323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H14">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I14">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J14">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>2.447815998979555</v>
+        <v>29.18778602746578</v>
       </c>
       <c r="R14">
-        <v>22.030343990816</v>
+        <v>262.690074247192</v>
       </c>
       <c r="S14">
-        <v>0.002641988749256701</v>
+        <v>0.06066641762689003</v>
       </c>
       <c r="T14">
-        <v>0.002641988749256701</v>
+        <v>0.06066641762689003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H15">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I15">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J15">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>0.1863019384488889</v>
+        <v>3.741372602004443</v>
       </c>
       <c r="R15">
-        <v>1.67671744604</v>
+        <v>33.67235341803999</v>
       </c>
       <c r="S15">
-        <v>0.0002010803203965781</v>
+        <v>0.007776392240145283</v>
       </c>
       <c r="T15">
-        <v>0.0002010803203965781</v>
+        <v>0.007776392240145283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H16">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I16">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J16">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>1.504420502391334</v>
+        <v>29.58634296863911</v>
       </c>
       <c r="R16">
-        <v>13.539784521522</v>
+        <v>266.277086717752</v>
       </c>
       <c r="S16">
-        <v>0.001623758502733038</v>
+        <v>0.06149481282680567</v>
       </c>
       <c r="T16">
-        <v>0.001623758502733038</v>
+        <v>0.06149481282680566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>87.74064340453411</v>
+        <v>1.974727127086223</v>
       </c>
       <c r="R17">
-        <v>789.665790640807</v>
+        <v>17.772544143776</v>
       </c>
       <c r="S17">
-        <v>0.0947006608437726</v>
+        <v>0.004104443566847784</v>
       </c>
       <c r="T17">
-        <v>0.0947006608437726</v>
+        <v>0.004104443566847783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>46.84456857006612</v>
+        <v>1.235035775528889</v>
       </c>
       <c r="R18">
-        <v>421.601117130595</v>
+        <v>11.11532197976</v>
       </c>
       <c r="S18">
-        <v>0.05056050911404001</v>
+        <v>0.00256700511891792</v>
       </c>
       <c r="T18">
-        <v>0.05056050911404001</v>
+        <v>0.00256700511891792</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H19">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>105.3789942616284</v>
+        <v>1.384564029847111</v>
       </c>
       <c r="R19">
-        <v>948.4109483546559</v>
+        <v>12.461076268624</v>
       </c>
       <c r="S19">
-        <v>0.1137381720534845</v>
+        <v>0.002877797568710204</v>
       </c>
       <c r="T19">
-        <v>0.1137381720534845</v>
+        <v>0.002877797568710204</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H20">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>8.020337685071111</v>
+        <v>0.1774773160977778</v>
       </c>
       <c r="R20">
-        <v>72.18303916564001</v>
+        <v>1.59729584488</v>
       </c>
       <c r="S20">
-        <v>0.008656550140219257</v>
+        <v>0.0003688841958604077</v>
       </c>
       <c r="T20">
-        <v>0.008656550140219257</v>
+        <v>0.0003688841958604077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H21">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>64.76561945614469</v>
+        <v>1.403470143660444</v>
       </c>
       <c r="R21">
-        <v>582.8905751053021</v>
+        <v>12.631231292944</v>
       </c>
       <c r="S21">
-        <v>0.06990314550321898</v>
+        <v>0.002917093670004832</v>
       </c>
       <c r="T21">
-        <v>0.06990314550321897</v>
+        <v>0.002917093670004831</v>
       </c>
     </row>
   </sheetData>
